--- a/Project/3501/Furkan/IMMD Production/Test sonuçları/Kart A sonuçlar.xlsx
+++ b/Project/3501/Furkan/IMMD Production/Test sonuçları/Kart A sonuçlar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27480" windowHeight="12915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27480" windowHeight="12915" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test Sonuçları" sheetId="1" r:id="rId1"/>
@@ -760,6 +760,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t>Phase A</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1094,6 +1120,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t>Phase B</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1428,6 +1480,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t>Phase C</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1437,26 +1514,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2826,15 +2883,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>459827</xdr:colOff>
+      <xdr:colOff>6569</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>162252</xdr:rowOff>
+      <xdr:rowOff>11166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>144517</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>558362</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>47952</xdr:rowOff>
+      <xdr:rowOff>105103</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2860,16 +2917,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>80597</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>131885</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>21982</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>395655</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>17585</xdr:rowOff>
+      <xdr:rowOff>51288</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2897,16 +2954,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>68141</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>29309</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>16852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>315058</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>144341</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>139211</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3212,7 +3269,7 @@
   </sheetPr>
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
@@ -5668,7 +5725,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -5680,7 +5737,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5783,7 +5840,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -5854,7 +5912,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5953,7 +6011,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5961,8 +6020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6057,6 +6116,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Project/3501/Furkan/IMMD Production/Test sonuçları/Kart A sonuçlar.xlsx
+++ b/Project/3501/Furkan/IMMD Production/Test sonuçları/Kart A sonuçlar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27480" windowHeight="12915" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27480" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Sonuçları" sheetId="1" r:id="rId1"/>
@@ -748,7 +748,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="tr-TR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -812,7 +812,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="tr-TR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -994,7 +994,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="495401200"/>
@@ -1053,7 +1053,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="487229328"/>
@@ -1094,7 +1094,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="tr-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1108,7 +1108,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="tr-TR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1172,7 +1172,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="tr-TR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1354,7 +1354,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="495401200"/>
@@ -1413,7 +1413,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="487229328"/>
@@ -1454,7 +1454,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="tr-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1468,7 +1468,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="tr-TR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1703,7 +1703,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="495401200"/>
@@ -1762,7 +1762,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="487229328"/>
@@ -1781,7 +1781,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="tr-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3002,7 +3002,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5736,7 +5736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -6020,7 +6020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
